--- a/saved_model/specs/4_h.xlsx
+++ b/saved_model/specs/4_h.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>delay</t>
   </si>
@@ -49,85 +49,49 @@
     <t>n_hidd_layer</t>
   </si>
   <si>
-    <t>20160101</t>
-  </si>
-  <si>
-    <t>20191231</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>9%</t>
+    <t>20170101</t>
+  </si>
+  <si>
+    <t>20200630</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
   </si>
   <si>
     <t>8%</t>
   </si>
   <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>31%</t>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>42%</t>
   </si>
   <si>
     <t>18%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>40%</t>
   </si>
 </sst>
 </file>
@@ -459,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5816326530612245</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -529,10 +493,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -540,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6097560975609756</v>
+        <v>0.6374622356495468</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -564,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -575,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5658482142857143</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -599,10 +563,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -610,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5967078189300411</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -634,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -645,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6482758620689655</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -669,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -680,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6290322580645161</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -704,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -715,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6384615384615384</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -736,13 +700,13 @@
         <v>0.05</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -771,13 +735,13 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -785,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6091370558375635</v>
+        <v>0.6336633663366337</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -806,13 +770,13 @@
         <v>0.05</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -820,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6435185185185185</v>
+        <v>0.659016393442623</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -841,10 +805,10 @@
         <v>0.05</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -855,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6650717703349283</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -876,13 +840,13 @@
         <v>0.05</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -890,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.6755555555555556</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -911,13 +875,13 @@
         <v>0.05</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -925,7 +889,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6596858638743456</v>
+        <v>0.6682926829268293</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -946,13 +910,13 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -960,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.6378378378378379</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -981,10 +945,10 @@
         <v>0.05</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -995,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.6682464454976303</v>
+        <v>0.6126984126984127</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1016,10 +980,10 @@
         <v>0.05</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1030,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.7142857142857143</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1051,13 +1015,13 @@
         <v>0.05</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1065,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6361031518624641</v>
+        <v>0.6082089552238806</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1086,13 +1050,13 @@
         <v>0.05</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1100,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.6696629213483146</v>
+        <v>0.678391959798995</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1121,10 +1085,10 @@
         <v>0.05</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1135,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.6266666666666667</v>
+        <v>0.7053291536050157</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1156,713 +1120,13 @@
         <v>0.05</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.6864406779661016</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>0.8</v>
-      </c>
-      <c r="H21">
-        <v>0.05</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21">
-        <v>12</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.7309417040358744</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>0.8</v>
-      </c>
-      <c r="H22">
-        <v>0.05</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.6398809523809523</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>0.8</v>
-      </c>
-      <c r="H23">
-        <v>0.05</v>
-      </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23">
-        <v>12</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.7268722466960352</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>0.8</v>
-      </c>
-      <c r="H24">
-        <v>0.05</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24">
-        <v>12</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.7247706422018348</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>0.8</v>
-      </c>
-      <c r="H25">
-        <v>0.05</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <v>12</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0.6652360515021459</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>0.8</v>
-      </c>
-      <c r="H26">
-        <v>0.05</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0.5990180032733224</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>0.8</v>
-      </c>
-      <c r="H27">
-        <v>0.05</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27">
-        <v>12</v>
-      </c>
-      <c r="K27">
         <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0.6650717703349283</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>0.8</v>
-      </c>
-      <c r="H28">
-        <v>0.05</v>
-      </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28">
-        <v>12</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0.7751196172248804</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>0.8</v>
-      </c>
-      <c r="H29">
-        <v>0.05</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0.6065934065934065</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>0.8</v>
-      </c>
-      <c r="H30">
-        <v>0.05</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0.643312101910828</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>0.8</v>
-      </c>
-      <c r="H31">
-        <v>0.05</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0.6058588548601864</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>0.8</v>
-      </c>
-      <c r="H32">
-        <v>0.05</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0.6453608247422681</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>0.8</v>
-      </c>
-      <c r="H33">
-        <v>0.05</v>
-      </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0.6079136690647482</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>0.8</v>
-      </c>
-      <c r="H34">
-        <v>0.05</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0.5772511848341232</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>0.8</v>
-      </c>
-      <c r="H35">
-        <v>0.05</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.6482889733840305</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>0.8</v>
-      </c>
-      <c r="H36">
-        <v>0.05</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36">
-        <v>12</v>
-      </c>
-      <c r="K36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0.5550423402617398</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <v>0.8</v>
-      </c>
-      <c r="H37">
-        <v>0.05</v>
-      </c>
-      <c r="I37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37">
-        <v>12</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.6605166051660517</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>0.8</v>
-      </c>
-      <c r="H38">
-        <v>0.05</v>
-      </c>
-      <c r="I38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38">
-        <v>12</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.6446945337620579</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>0.8</v>
-      </c>
-      <c r="H39">
-        <v>0.05</v>
-      </c>
-      <c r="I39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.6932773109243697</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>0.8</v>
-      </c>
-      <c r="H40">
-        <v>0.05</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40">
-        <v>12</v>
-      </c>
-      <c r="K40">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
